--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.558794983659603</v>
+        <v>0.672624</v>
       </c>
       <c r="H2">
-        <v>0.558794983659603</v>
+        <v>2.017872</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.11073667403177</v>
+        <v>2.144859</v>
       </c>
       <c r="N2">
-        <v>2.11073667403177</v>
+        <v>6.434577</v>
       </c>
       <c r="O2">
-        <v>0.01239772935977138</v>
+        <v>0.01238161622251906</v>
       </c>
       <c r="P2">
-        <v>0.01239772935977138</v>
+        <v>0.01238161622251906</v>
       </c>
       <c r="Q2">
-        <v>1.179469065275308</v>
+        <v>1.442683640016</v>
       </c>
       <c r="R2">
-        <v>1.179469065275308</v>
+        <v>12.984152760144</v>
       </c>
       <c r="S2">
-        <v>0.01239772935977138</v>
+        <v>0.006474484231382612</v>
       </c>
       <c r="T2">
-        <v>0.01239772935977138</v>
+        <v>0.006474484231382612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.558794983659603</v>
+        <v>0.672624</v>
       </c>
       <c r="H3">
-        <v>0.558794983659603</v>
+        <v>2.017872</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>153.936176690399</v>
+        <v>155.9453076666667</v>
       </c>
       <c r="N3">
-        <v>153.936176690399</v>
+        <v>467.835923</v>
       </c>
       <c r="O3">
-        <v>0.9041672894421833</v>
+        <v>0.9002246540361518</v>
       </c>
       <c r="P3">
-        <v>0.9041672894421833</v>
+        <v>0.9002246540361518</v>
       </c>
       <c r="Q3">
-        <v>86.01876333833327</v>
+        <v>104.892556623984</v>
       </c>
       <c r="R3">
-        <v>86.01876333833327</v>
+        <v>944.033009615856</v>
       </c>
       <c r="S3">
-        <v>0.9041672894421833</v>
+        <v>0.4707374402913866</v>
       </c>
       <c r="T3">
-        <v>0.9041672894421833</v>
+        <v>0.4707374402913866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.558794983659603</v>
+        <v>0.672624</v>
       </c>
       <c r="H4">
-        <v>0.558794983659603</v>
+        <v>2.017872</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.33655346640788</v>
+        <v>2.823368666666667</v>
       </c>
       <c r="N4">
-        <v>2.33655346640788</v>
+        <v>8.470105999999999</v>
       </c>
       <c r="O4">
-        <v>0.01372409825799263</v>
+        <v>0.0162984453921456</v>
       </c>
       <c r="P4">
-        <v>0.01372409825799263</v>
+        <v>0.0162984453921456</v>
       </c>
       <c r="Q4">
-        <v>1.30565435608118</v>
+        <v>1.899065526048</v>
       </c>
       <c r="R4">
-        <v>1.30565435608118</v>
+        <v>17.091589734432</v>
       </c>
       <c r="S4">
-        <v>0.01372409825799263</v>
+        <v>0.008522637577441261</v>
       </c>
       <c r="T4">
-        <v>0.01372409825799263</v>
+        <v>0.008522637577441259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.558794983659603</v>
+        <v>0.672624</v>
       </c>
       <c r="H5">
-        <v>0.558794983659603</v>
+        <v>2.017872</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5229110735646243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.8684085553726</v>
+        <v>12.315788</v>
       </c>
       <c r="N5">
-        <v>11.8684085553726</v>
+        <v>36.947364</v>
       </c>
       <c r="O5">
-        <v>0.06971088294005262</v>
+        <v>0.07109528434918362</v>
       </c>
       <c r="P5">
-        <v>0.06971088294005262</v>
+        <v>0.07109528434918362</v>
       </c>
       <c r="Q5">
-        <v>6.632007164764924</v>
+        <v>8.283894587712</v>
       </c>
       <c r="R5">
-        <v>6.632007164764924</v>
+        <v>74.555051289408</v>
       </c>
       <c r="S5">
-        <v>0.06971088294005262</v>
+        <v>0.03717651146441384</v>
       </c>
       <c r="T5">
-        <v>0.06971088294005262</v>
+        <v>0.03717651146441384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6136826666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.841048</v>
+      </c>
+      <c r="I6">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="J6">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.144859</v>
+      </c>
+      <c r="N6">
+        <v>6.434577</v>
+      </c>
+      <c r="O6">
+        <v>0.01238161622251906</v>
+      </c>
+      <c r="P6">
+        <v>0.01238161622251906</v>
+      </c>
+      <c r="Q6">
+        <v>1.316262790744</v>
+      </c>
+      <c r="R6">
+        <v>11.846365116696</v>
+      </c>
+      <c r="S6">
+        <v>0.005907131991136452</v>
+      </c>
+      <c r="T6">
+        <v>0.005907131991136452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6136826666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.841048</v>
+      </c>
+      <c r="I7">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="J7">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>155.9453076666667</v>
+      </c>
+      <c r="N7">
+        <v>467.835923</v>
+      </c>
+      <c r="O7">
+        <v>0.9002246540361518</v>
+      </c>
+      <c r="P7">
+        <v>0.9002246540361518</v>
+      </c>
+      <c r="Q7">
+        <v>95.70093226303378</v>
+      </c>
+      <c r="R7">
+        <v>861.3083903673041</v>
+      </c>
+      <c r="S7">
+        <v>0.4294872137447652</v>
+      </c>
+      <c r="T7">
+        <v>0.4294872137447652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6136826666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.841048</v>
+      </c>
+      <c r="I8">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="J8">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.823368666666667</v>
+      </c>
+      <c r="N8">
+        <v>8.470105999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.0162984453921456</v>
+      </c>
+      <c r="P8">
+        <v>0.0162984453921456</v>
+      </c>
+      <c r="Q8">
+        <v>1.732652412343111</v>
+      </c>
+      <c r="R8">
+        <v>15.593871711088</v>
+      </c>
+      <c r="S8">
+        <v>0.007775807814704341</v>
+      </c>
+      <c r="T8">
+        <v>0.00777580781470434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6136826666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.841048</v>
+      </c>
+      <c r="I9">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="J9">
+        <v>0.4770889264353757</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.315788</v>
+      </c>
+      <c r="N9">
+        <v>36.947364</v>
+      </c>
+      <c r="O9">
+        <v>0.07109528434918362</v>
+      </c>
+      <c r="P9">
+        <v>0.07109528434918362</v>
+      </c>
+      <c r="Q9">
+        <v>7.557985621941333</v>
+      </c>
+      <c r="R9">
+        <v>68.021870597472</v>
+      </c>
+      <c r="S9">
+        <v>0.03391877288476979</v>
+      </c>
+      <c r="T9">
+        <v>0.03391877288476979</v>
       </c>
     </row>
   </sheetData>
